--- a/medicine/Enfance/Zach_Hyman/Zach_Hyman.xlsx
+++ b/medicine/Enfance/Zach_Hyman/Zach_Hyman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zach Hyman (né le 9 septembre 1992 à Toronto, dans la province de l'Ontario, au Canada) est un joueur professionnel canadien de hockey sur glace qui évolue au poste d'attaquant[1]. Il est également un auteur de littérature d'enfance et de jeunesse traitant de son sport.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zach Hyman (né le 9 septembre 1992 à Toronto, dans la province de l'Ontario, au Canada) est un joueur professionnel canadien de hockey sur glace qui évolue au poste d'attaquant. Il est également un auteur de littérature d'enfance et de jeunesse traitant de son sport.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 19 juin 2015, il est échangé aux Maple Leafs de Toronto avec un choix conditionnel de septième tour au Repêchage d'entrée dans la LNH 2017 contre Greg McKegg.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
